--- a/medicine/Enfance/Le_Club_des_cinq/Le_Club_des_cinq.xlsx
+++ b/medicine/Enfance/Le_Club_des_cinq/Le_Club_des_cinq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Club des cinq (titre original : The Famous Five) est une série de romans d'aventures pour enfants et jeunes adolescents écrite par Enid Blyton et publiée en Angleterre de 1942 à 1963.
-En France, elle est parue de 1955 à 1967[1] dans la collection Nouvelle Bibliothèque rose puis Bibliothèque rose. La série est toujours rééditée en France ; depuis 2011, Hachette Collections publie des fac-similés des volumes des années 1960 à 1980 avec texte et illustrations originaux[2].
+En France, elle est parue de 1955 à 1967 dans la collection Nouvelle Bibliothèque rose puis Bibliothèque rose. La série est toujours rééditée en France ; depuis 2011, Hachette Collections publie des fac-similés des volumes des années 1960 à 1980 avec texte et illustrations originaux.
 La traductrice française Claude Voilier a écrit vingt-quatre volumes supplémentaires de 1971 à 1985.
 La série relate les aventures d'un groupe de quatre enfants : Claudine (surnommée Claude), François, Michel (surnommé Mick), Annie et Dagobert (surnommé Dag ou Dago). Enid Blyton écrit les 21 premiers livres de la série dans les années 1940, et certains des concepts qu'on y retrouve reflètent cette époque. On retrouve ces concepts uniquement dans les traductions françaises originales non retouchées. Hachette modifiera en effet le texte d'origine à partir des années 1980.
 </t>
@@ -515,58 +527,200 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noms des personnages sont ceux de la version française suivis, entre parenthèses et en italique, de leurs noms dans la version originale anglaise.
-Personnages principaux
-Claudine « Claude » Dorsel (Georgina « George » Kirrin) a onze ans. Elle veut que tout le monde l'appelle Claude car elle trouve son prénom trop féminin. Elle possède une île dont sa mère a hérité (ainsi que la maison), laquelle lui a dit « qu'elle la lui donnait »[3]. Cette île est le domaine des Cinq, qui y vont souvent camper. Claude adore son chien Dagobert et l'emmène partout, même dans son collège. Elle est très généreuse et ne ment jamais, mais elle a un caractère difficile. Elle n'en fait qu'à sa tête et n'obéit qu'à son instinct. Dans les deux premiers livres tout du moins, Claude a une forte personnalité et joue un rôle majeur. Elle refuse de se comporter comme devrait le faire une fille (selon les attentes sociales de l'époque) et affirme son égalité avec les deux garçons du groupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Claudine « Claude » Dorsel (Georgina « George » Kirrin) a onze ans. Elle veut que tout le monde l'appelle Claude car elle trouve son prénom trop féminin. Elle possède une île dont sa mère a hérité (ainsi que la maison), laquelle lui a dit « qu'elle la lui donnait ». Cette île est le domaine des Cinq, qui y vont souvent camper. Claude adore son chien Dagobert et l'emmène partout, même dans son collège. Elle est très généreuse et ne ment jamais, mais elle a un caractère difficile. Elle n'en fait qu'à sa tête et n'obéit qu'à son instinct. Dans les deux premiers livres tout du moins, Claude a une forte personnalité et joue un rôle majeur. Elle refuse de se comporter comme devrait le faire une fille (selon les attentes sociales de l'époque) et affirme son égalité avec les deux garçons du groupe.
 François Gauthier (Julian Kirrin) est l'aîné des enfants. Très raisonnable pour ses douze ans, il est responsable de son frère, de sa sœur et de sa cousine. Il est grand et fort, prudent et sérieux. Il pense à tout, mais est parfois un peu « lourd » pour ses cadets avec ses recommandations. Pessimiste, il n'a pas beaucoup de patience.
 Michel « Mick » Gauthier (Richard « Dick » Kirrin) fait souvent équipe avec sa cousine Claude qui est du même âge que lui. Petit et malin, il taquine toujours tout le monde sur tout : Claude sur son prénom et son attitude masculine, François sur sa prudence exagérée et sa gourmandise et Annie sur sa taille et sa timidité. Mais il sait être courageux et réfléchi quand il le faut. Il est très optimiste, mais casse-cou. C'est un incorrigible gourmand et il est vite insupportable avec ses blagues incessantes.
 Annie Gauthier (Anne Kirrin) du haut de ses «  dix ans », est la plus petite. Mick et Claude la traitent souvent de « bébé ». Claude trouve Annie trop « fifille » et froussarde, Annie trouve Claude trop intrépide et garçon manqué, mais elles s'entendent bien. Très douce et très timide, elle est cependant très maligne et quand elle est en colère, elle devient redoutable. Elle surgit dans l'action au moment où l'on s'y attend le moins pour sauver ses amis en danger. Elle aime être la ménagère et la cuisinière du groupe. Elle fait souvent des gaffes.
-Dagobert, souvent abrégé en « Dag » ou « Dago » (Timothy, souvent abrégé en Tim ou Timmy) est le chien de Claude. C'est un chien très affectueux qui ne se sépare jamais de sa maîtresse. Il ne possède pas de pedigree. Claude ne s'en séparerait pour rien au monde : il sait monter la garde, suivre une piste, effrayer les bandits, mais il peut aussi être calme, doux et joueur. Un chien parfait et le plus intelligent au monde, selon Claude.
-Personnages récurrents
-L'oncle Henri Dorsel (Quentin Kirrin) est le père de Claude et l'oncle de François, Mick et Annie (dans la version originale, il est le frère du père des trois enfants ; dans la traduction française, il est le frère de leur mère). C'est un savant, très sévère, qui travaille tout le temps et qui déteste entendre des enfants jouer quand il est dans son bureau. Il a chassé Dagobert de la maison parce qu'il aboyait trop, mais après la première aventure des Cinq, où les enfants ont sauvé sa fortune des voleurs, il a demandé à Claude ce qui lui ferait plaisir, même si c'était très cher. Et Claude lui a simplement répondu : « Dago ! » car c'était la seule chose dont elle avait vraiment envie. M. Dorsel a accepté sans hésiter.
+Dagobert, souvent abrégé en « Dag » ou « Dago » (Timothy, souvent abrégé en Tim ou Timmy) est le chien de Claude. C'est un chien très affectueux qui ne se sépare jamais de sa maîtresse. Il ne possède pas de pedigree. Claude ne s'en séparerait pour rien au monde : il sait monter la garde, suivre une piste, effrayer les bandits, mais il peut aussi être calme, doux et joueur. Un chien parfait et le plus intelligent au monde, selon Claude.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'oncle Henri Dorsel (Quentin Kirrin) est le père de Claude et l'oncle de François, Mick et Annie (dans la version originale, il est le frère du père des trois enfants ; dans la traduction française, il est le frère de leur mère). C'est un savant, très sévère, qui travaille tout le temps et qui déteste entendre des enfants jouer quand il est dans son bureau. Il a chassé Dagobert de la maison parce qu'il aboyait trop, mais après la première aventure des Cinq, où les enfants ont sauvé sa fortune des voleurs, il a demandé à Claude ce qui lui ferait plaisir, même si c'était très cher. Et Claude lui a simplement répondu : « Dago ! » car c'était la seule chose dont elle avait vraiment envie. M. Dorsel a accepté sans hésiter.
 La tante Cécile Dorsel (Fanny Kirrin) est la mère de Claude et la tante de François, Mick et Annie. Femme au foyer douce, très aimable et attentionnée, elle permet beaucoup de choses aux enfants. Le caractère de sa fille lui cause beaucoup de soucis : elle doit sans cesse interrompre les conflits entre Claude et son père. Elle aime beaucoup ses neveux et sa nièce.
 Maria (Joanna) est la cuisinière des Dorsel. Très gentille et active, elle se plierait en quatre pour satisfaire sa petite famille. Elle adore les quatre cousins et leur prépare de bons petits plats. Elle interdit à Dagobert de pénétrer dans sa cuisine et se contente de lui servir sa gamelle. Heureusement, les quatre cousins se chargent de passer des miettes au chien sous la table. Dagobert aime beaucoup la cuisinière, mais il ne comprend pas pourquoi elle ne l'aime pas. En revanche, elle et sa cuisine plaisent beaucoup aux quatre cousins.
 Pilou (Tinker) est un petit garçon très original. Son vrai prénom est Pierre-Louis, mais tout le monde l'appelle « Pilou », ce qui fait plus joyeux, selon son père, M. Lagarde. Il n'a jamais connu sa mère. Pilou est toujours accompagné de Berlingot, un petit singe facétieux. Il a aussi un guépard nommé Attila et un chien appelé Flibustier dans Les Cinq au Cap des Tempêtes. Il adore les véhicules, et de temps en temps, quand il pense à l'un d'eux, il imite le bruit de son moteur. Parfois, il s'imagine qu'il est lui-même une voiture et court partout en imitant à la perfection tous les bruits. Pilou possède un vieux phare désaffecté dans son village, au Cap des Tempêtes. Le Club des cinq y a vécu avec lui une aventure palpitante.
 Jo est une petite gitane d'environ onze ans. Elle ressemble étonnamment à Claude, mais cela ne plaisait ni à l'une, ni à l'autre. Mais après une étonnante aventure, Jo sauve Claude, enlevée comme monnaie d'échange contre des précieux papiers de son père. En fait, Jo a aidé à son enlèvement et a même empoisonné Dagobert pour éviter qu'il n'aboie, ce qu'elle regrette. Orpheline de mère, son père la frappait ; elle devait obéir pour avoir à manger. Pour Mick, qu'elle adore, elle se révolte et devient à jamais l'amie des Cinq. La bonne Maria, cuisinière des Dorsel, trouve un nouveau foyer à Jo afin qu'elle n'aille pas en maison de redressement. Jo a un don étonnant qui lui vient de sa mère, dresseuse dans un cirque : tous les chiens, sans exception, l'adorent. Même Dagobert, si obéissant, est venu voir Jo alors que Claude, qui détestait la gitane, le lui avait formellement interdit. Elle est sauvage, farouche. Elle est incapable de lire une carte, mais elle retrouve son chemin sans problème. Elle ne résiste pas à la douceur. Mick, le seul des Cinq à avoir eu pitié d'elle au début, est le seul qui pouvait obtenir quelque chose d'elle. Pour l'amitié du jeune garçon, Jo a risqué sa vie pour sauver Claude alors qu'elle la détestait. Mick est toujours son préféré.
 Le professeur Lagarde (Professor Hayling) est le père de Pilou. C'est un grand savant, comme M. Dorsel. Il est veuf et très étourdi.
 Jeanne est la bonne de M. Lagarde. Elle sert aussi de mère adoptive à Pilou qui n'a jamais connu la sienne. Elle est très gentille, mais Pilou et Berlingot la font tourner en bourrique avec leurs singeries.
-Jean-Jacques-Loic (Alf) est un jeune pêcheur. Il aide beaucoup les Cinq en leur donnant des renseignements utiles. Il a gardé Dagobert lorsque l'oncle Henri ne voulait pas de lui à la villa des mouettes.
-Nom de famille
-Dans la version anglaise, les noms de famille n'apparaissent que dans les sept derniers épisodes. On apprend bien, lors de la première aventure, que la famille maternelle de George/Claude s'appelle Kirrin (tout comme le village, la villa, la baie et l'île), mais c'est seulement lors de la 15e aventure que l'on indique que son père se nomme également Kirrin, sans que cette coïncidence ne soit expliquée. Dans la 16e aventure, les pères des cousins étant frères, on précise que tous les enfants portent ce même nom, Kirrin (ce qui est d'ailleurs brièvement démenti dans l'épisode suivant, où les 3 cousins de George/Claude deviennent les Barnard). En français, le père de Claude Dorsel est le frère de la mère des trois Gauthier.
-Claude
-Lors de l'écriture de ses livres, Enid Blyton a toujours dit que le personnage de Claude (George) s'inspirait d'une fille ayant réellement existé. À la fin de sa vie, elle admit que cette fille était en fait elle-même[4].
-Dans les premiers volumes de la série, Claude sort du cadre habituel des stéréotypes garçons-filles que l'on trouve dans les séries de l'auteur. Cette différence s'atténue par la suite, peut-être sur pression de l'éditeur[réf. nécessaire]. Dans les deux premiers livres tout du moins, Claude a une forte personnalité et joue un rôle majeur. Elle refuse de se comporter comme devrait le faire une fille et proclame son égalité avec les deux garçons du groupe. Si quelqu'un l'appelle par son vrai prénom : « Claudine », elle ne réagit tout simplement pas. Même si, parfois, ses compagnons réprouvent son comportement, elle tient bon[5].
+Jean-Jacques-Loic (Alf) est un jeune pêcheur. Il aide beaucoup les Cinq en leur donnant des renseignements utiles. Il a gardé Dagobert lorsque l'oncle Henri ne voulait pas de lui à la villa des mouettes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom de famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la version anglaise, les noms de famille n'apparaissent que dans les sept derniers épisodes. On apprend bien, lors de la première aventure, que la famille maternelle de George/Claude s'appelle Kirrin (tout comme le village, la villa, la baie et l'île), mais c'est seulement lors de la 15e aventure que l'on indique que son père se nomme également Kirrin, sans que cette coïncidence ne soit expliquée. Dans la 16e aventure, les pères des cousins étant frères, on précise que tous les enfants portent ce même nom, Kirrin (ce qui est d'ailleurs brièvement démenti dans l'épisode suivant, où les 3 cousins de George/Claude deviennent les Barnard). En français, le père de Claude Dorsel est le frère de la mère des trois Gauthier.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de l'écriture de ses livres, Enid Blyton a toujours dit que le personnage de Claude (George) s'inspirait d'une fille ayant réellement existé. À la fin de sa vie, elle admit que cette fille était en fait elle-même.
+Dans les premiers volumes de la série, Claude sort du cadre habituel des stéréotypes garçons-filles que l'on trouve dans les séries de l'auteur. Cette différence s'atténue par la suite, peut-être sur pression de l'éditeur[réf. nécessaire]. Dans les deux premiers livres tout du moins, Claude a une forte personnalité et joue un rôle majeur. Elle refuse de se comporter comme devrait le faire une fille et proclame son égalité avec les deux garçons du groupe. Si quelqu'un l'appelle par son vrai prénom : « Claudine », elle ne réagit tout simplement pas. Même si, parfois, ses compagnons réprouvent son comportement, elle tient bon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les lieux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants sont tous scolarisés dans des pensionnats, ils se retrouvent et vivent leurs aventures durant leurs vacances.
 Les lieux principaux sont :
@@ -581,40 +735,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La série originale comporte vingt-et-un ouvrages présentés ci-dessous dans leur ordre chronologique anglais de parution.
 On remarquera que certains titres anglais ont été traduits sous deux formes en français.
 Dans le cas du Club des cinq et le vieux puits, paru également sous le titre Le Club des cinq et le secret du vieux puits, on peut penser à une erreur d'édition rapidement corrigée, une seule édition datant des années 1970 (et la version audio) ayant le titre en version longue.
-Dans d'autres cas comme Le Club des cinq et les saltimbanques et sa nouvelle mouture, Le Club des cinq et le cirque de l'étoile, cela est dû à de nouvelles adaptations qui simplifient le vocabulaire et la structure du langage, supprimant des parties entières et modifiant même l'histoire[6]. Ces changements ne représentent jamais un rapprochement avec la version anglaise.
-Certains critiques considèrent que ces changements sont l'occasion d'un caviardage au nom du « politiquement correct »[7]. Plusieurs livres avaient déjà été considérablement amputés avant des changements de titres. En 2021, les éditeurs français et anglais font le constat que ces nouvelles versions « politiquement correctes » et de « simplification de la langue » n'ont pas fonctionné et qu'elles se vendent mal[8].
-Liste des romans - Série originale d'Enid Blyton
-Liste des romans - Série additionnelle de Claude Voilier
-À la mort d'Enid Blyton, la traductrice française Claude Voilier écrivit vingt-quatre volumes supplémentaires de 1971 à 1985 (la traduction de la série resta longtemps extrêmement populaire dans les parties francophones de l'Europe). Ces romans ont été traduits en anglais : généralement considérés comme étant inférieurs par les fans de E. Blyton - du moins par les fans anglophones - ils n'ont jamais été aussi populaires que la série originale.
+Dans d'autres cas comme Le Club des cinq et les saltimbanques et sa nouvelle mouture, Le Club des cinq et le cirque de l'étoile, cela est dû à de nouvelles adaptations qui simplifient le vocabulaire et la structure du langage, supprimant des parties entières et modifiant même l'histoire. Ces changements ne représentent jamais un rapprochement avec la version anglaise.
+Certains critiques considèrent que ces changements sont l'occasion d'un caviardage au nom du « politiquement correct ». Plusieurs livres avaient déjà été considérablement amputés avant des changements de titres. En 2021, les éditeurs français et anglais font le constat que ces nouvelles versions « politiquement correctes » et de « simplification de la langue » n'ont pas fonctionné et qu'elles se vendent mal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les romans</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des romans - Série additionnelle de Claude Voilier</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>À la mort d'Enid Blyton, la traductrice française Claude Voilier écrivit vingt-quatre volumes supplémentaires de 1971 à 1985 (la traduction de la série resta longtemps extrêmement populaire dans les parties francophones de l'Europe). Ces romans ont été traduits en anglais : généralement considérés comme étant inférieurs par les fans de E. Blyton - du moins par les fans anglophones - ils n'ont jamais été aussi populaires que la série originale.
 Les premières éditions comportaient une page de texte pur et, en vis-à-vis, une page de bande-dessinée. Cette présentation a disparu dans les dernières éditions.
 1971 : Les Cinq sont les plus forts (illustré par Jean Sidobre)Réédité en 2021 illustré par Auren.
 1971 : Les Cinq au Bal des espions (illustré par Jean Sidobre)
@@ -639,11 +829,80 @@
 1981 : Les Cinq contre les Fantômes (illustré par Buci)
 1983 : Les Cinq en Amazonie (illustré par Annie-Claude Martin)
 1984 : Les Cinq et le Trésor du pirate (illustré par : Inconnu)
-1985 : Les Cinq contre le Loup-garou (illustré par Annie-Claude Martin)
-La Grande Énigme du Club des cinq
-Un nouvel ouvrage, La Grande Énigme du Club des cinq ( (ISBN 978-2012017566)), est paru en 2009 chez Hachette. Il s'agit, sous la forme d'un livre interactif, de résoudre la seule énigme que le club n'a pas réussi à faire aboutir. L'édition originale anglaise, La Grande Énigme du Club des cinq ( (ISBN 978-0340970836)), comprend en plus de l'aventure, plus d'illustrations, des bonus informatifs (se servir d'une boussole, premiers secours, etc.) autour de l'aventure et quelques gadgets détachables.
-Les illustrateurs
-Plusieurs illustrateurs se sont succédé dans l'histoire de l'édition du Club des cinq. Chacun a marqué un peu les aventures dans son époque :
+1985 : Les Cinq contre le Loup-garou (illustré par Annie-Claude Martin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les romans</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La Grande Énigme du Club des cinq</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nouvel ouvrage, La Grande Énigme du Club des cinq ( (ISBN 978-2012017566)), est paru en 2009 chez Hachette. Il s'agit, sous la forme d'un livre interactif, de résoudre la seule énigme que le club n'a pas réussi à faire aboutir. L'édition originale anglaise, La Grande Énigme du Club des cinq ( (ISBN 978-0340970836)), comprend en plus de l'aventure, plus d'illustrations, des bonus informatifs (se servir d'une boussole, premiers secours, etc.) autour de l'aventure et quelques gadgets détachables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les romans</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les illustrateurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs illustrateurs se sont succédé dans l'histoire de l'édition du Club des cinq. Chacun a marqué un peu les aventures dans son époque :
 Simone Beaudoin : elle est la plus proche de l'époque racontée par Enid Blyton (proximité dans le temps : ce sont les années 1950). Le dessin est assez dépouillé, voire naïf ;
 Jeanne Hives : elle a illustré presque toute la collection. Le trait est plus moderne, moins naïf que celui de Simone Beaudoin. On retrouve ces illustrations dans les éditions des années 1960 ;
 Paul Durand : il a illustré Le Club des cinq va camper dans la première édition française Hachette de 1957. Illustrations reprises dans l'édition 1962 de la Nouvelle Bibliothèque rose. L'esthétique est totalement différente ;
@@ -651,80 +910,256 @@
 Jean Sidobre : ancré dans les années soixante-dix, ses personnages sont habillés à la mode de l'époque. Il reste l'illustrateur le plus prolifique dans la série, avec parfois plusieurs couvertures différentes (Le Club des cinq en embuscade, Le Club des cinq et le vieux puits, Le Club des cinq contre-attaque, Le Club des cinq en péril ou Le Club des cinq aux sports d'hiver) et bien sûr la première édition des romans racontés par Claude Voilier, illustrés d'une courte bande dessinée :
 Auren, avec le passage vers la bibliothèque verte, illustre toute la série des romans dès 2019.
 Les illustrations ont disparu des livres de la Bibliothèque rose à la fin des années 1990 pour ne reparaître que dans les rééditions de 2008, mais sous la forme d'icônes ou de petites illustrations de début de chapitre.
-Éditions françaises
-Pour la France, la série est éditée dans son ensemble chez Hachette, initialement dans la collection Bibliothèque rose, et depuis 2019, avec la réorganisation des collections enfants chez Hachette, dans la Bibliothèque verte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les romans</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éditions françaises</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pour la France, la série est éditée dans son ensemble chez Hachette, initialement dans la collection Bibliothèque rose, et depuis 2019, avec la réorganisation des collections enfants chez Hachette, dans la Bibliothèque verte.
 Il existe néanmoins quelques autres éditions connues :
 collection Ségur Fleuriot chez Hachette : format cartonné avec une reliure (1955-1957) ;
 Nouvelle collection Ségur chez Hachette : format souple (années 1960) ;
 Idéal-Bibliothèque chez Hachette : moyen format cartonné avec une reliure (années 1960) ;
 La Galaxie ou Vermeille chez Hachette : grand format cartonné (années 1970) ;
-Collection J et Junior de poche chez ODEJ : format cartonné relié pour le 1er ; format souple pour le second.
-Le Club de Michel Pagel (2016)
-Dans le roman Le Club[9], Michel Pagel réunit les membres du Club des cinq trente ans après la série originelle - sous leurs identités françaises. Claude, qui assume désormais son état de femme homosexuelle et vit avec sa compagne Dominique, a invité ses cousins à Kernach. En dehors du chien Dagobert, mort depuis trois décennies, ils sont presque tous venus, avec leurs proches. François est devenu commissaire de police, célibataire et toujours porté à l'investigation. Alcoolique et dépressive, Annie a connu plusieurs mariages, et vit désormais avec sa fille Marie. Mick, fâché avec son frère et sa sœur, est tombé amoureux d'une gitane, Jo, rencontrée lors d'une précédente aventure ; ce couple solide n'est pas présent à Noël. Pierre-Louis Lagarde (« Pilou »), autre rencontre précédente, est là avec sa jeune compagne Mélodie. La mère de Claude, Cécile, est également présente et est assassinée dans la nuit, alors que la maison est coupée du reste du monde. Mélodie est assassinée à son tour. Tandis que François et Pilou sont allés à pied déclarer le meurtre de Mme Dorsel et de Mélodie à la gendarmerie, Claude et Dominique découvrent Marie, la fillette d'Annie, étranglée dans son lit à l'étage. Mick et sa compagne Jo arrivent alors à la Villa des Mouettes. C'est alors que trois coups de feu retentissent tuant Jo sur le coup…
-Pagel met en scène des personnages qui savent que leurs premières aventures ont été romancées et publiées ; le livre contient également Le Roman qui n'a jamais été écrit, qui aurait été la dernière aventure du Club des cinq, et aurait vu le groupe se fragmenter à la puberté. Renversant la réalité, les protagonistes se demandent pourquoi une romancière britannique a donné une consonance anglaise à leurs aventures tout en ne les ayant jamais rencontrés. Le récit mélange les thèmes du dédoublement, de l'identité sexuelle et fictionnelle, et Pagel s'appuie sur une analyse minutieuse de l'œuvre[10].
+Collection J et Junior de poche chez ODEJ : format cartonné relié pour le 1er ; format souple pour le second.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les romans</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Le Club de Michel Pagel (2016)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le roman Le Club, Michel Pagel réunit les membres du Club des cinq trente ans après la série originelle - sous leurs identités françaises. Claude, qui assume désormais son état de femme homosexuelle et vit avec sa compagne Dominique, a invité ses cousins à Kernach. En dehors du chien Dagobert, mort depuis trois décennies, ils sont presque tous venus, avec leurs proches. François est devenu commissaire de police, célibataire et toujours porté à l'investigation. Alcoolique et dépressive, Annie a connu plusieurs mariages, et vit désormais avec sa fille Marie. Mick, fâché avec son frère et sa sœur, est tombé amoureux d'une gitane, Jo, rencontrée lors d'une précédente aventure ; ce couple solide n'est pas présent à Noël. Pierre-Louis Lagarde (« Pilou »), autre rencontre précédente, est là avec sa jeune compagne Mélodie. La mère de Claude, Cécile, est également présente et est assassinée dans la nuit, alors que la maison est coupée du reste du monde. Mélodie est assassinée à son tour. Tandis que François et Pilou sont allés à pied déclarer le meurtre de Mme Dorsel et de Mélodie à la gendarmerie, Claude et Dominique découvrent Marie, la fillette d'Annie, étranglée dans son lit à l'étage. Mick et sa compagne Jo arrivent alors à la Villa des Mouettes. C'est alors que trois coups de feu retentissent tuant Jo sur le coup…
+Pagel met en scène des personnages qui savent que leurs premières aventures ont été romancées et publiées ; le livre contient également Le Roman qui n'a jamais été écrit, qui aurait été la dernière aventure du Club des cinq, et aurait vu le groupe se fragmenter à la puberté. Renversant la réalité, les protagonistes se demandent pourquoi une romancière britannique a donné une consonance anglaise à leurs aventures tout en ne les ayant jamais rencontrés. Le récit mélange les thèmes du dédoublement, de l'identité sexuelle et fictionnelle, et Pagel s'appuie sur une analyse minutieuse de l'œuvre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cinéma
-1957 : Five on a Treasure Island, film anglais
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1957 : Five on a Treasure Island, film anglais
 1964 : Five Have a Mystery to Solve, film anglais
 1970 : De 5 i fedtefadet, film germano-danois.
 2012 : Le Club des Cinq, Le Film (Fünf Freunde), film allemand
 2013 : Le Club des Cinq en Péril (Fünf Freunde 2), film allemand
 2014 : Le Club des Cinq : L'Île aux Pirates (Fünf Freunde 3), film allemand
 2015 : Le Club des cinq et le Secret de la pyramide (Fünf Freunde 4), film allemand de Mike Marzuk
-2020 : Le Club des Cinq et la vallée des dinosaures, film allemand réalisé par Mike Marzuk
-À la télévision
-1978 : Le Club des cinq, série anglaise. L'action est transposée à l'époque du tournage.
+2020 : Le Club des Cinq et la vallée des dinosaures, film allemand réalisé par Mike Marzuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1978 : Le Club des cinq, série anglaise. L'action est transposée à l'époque du tournage.
 1996 : Le Club des cinq, coproduction européenne qui restitue l'action à l'époque de l'écriture des romans originaux, ce qui rend crédible, par exemple, la contrebande ou encore la présence de locomotives à vapeur.
 1982 : Five go mad in Dorset, parodie comique anglaise du Club des cinq. Le sens comique de cette série repose sur le contrepied systématique de l'esprit des personnages créés par Enid Blyton : ils sont un peu plus vieux que dans les romans et se promènent en culotte courte et petite jupe, ils sont gourmands, paresseux, pas très futés, etc.
 2008 : Le Club des cinq : Nouvelles Enquêtes, série de dessins animés qui reprend indirectement les personnages - leurs enfants, en fait - dans des enquêtes d'un genre plus moderne, mais dans le style du Club des cinq. Une première saison de 26 épisodes de 26 minutes est diffusée dès mai 2008 en France.
-2024 : le Club des cinq : série des célèbres livres de Enid Blyton qui raconte les aventures de Claude, Annie, François, Mick et Dagobert (le chien). Cette série sera diffusée, en France, sur TF1 courant 2024 et est diffusé dès le 9 décembre 2023 sur BBC en Angleterre puis courant 2024 pour les autres épisodes.
-Bande dessinée
-Au début des années 1980, six albums seront édités par les Éditions Hachette avec une prépublication dans le Journal de Mickey. Les scenarios sont de Serge Rosenzweig, et les dessins de Bernard Dufossé pour les quatre premiers albums, de Raffaele Carlo Marcello pour les deux derniers.
+2024 : le Club des cinq : série des célèbres livres de Enid Blyton qui raconte les aventures de Claude, Annie, François, Mick et Dagobert (le chien). Cette série sera diffusée, en France, sur TF1 courant 2024 et est diffusé dès le 9 décembre 2023 sur BBC en Angleterre puis courant 2024 pour les autres épisodes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Au début des années 1980, six albums seront édités par les Éditions Hachette avec une prépublication dans le Journal de Mickey. Les scenarios sont de Serge Rosenzweig, et les dessins de Bernard Dufossé pour les quatre premiers albums, de Raffaele Carlo Marcello pour les deux derniers.
 Le Trésor du galion d'or (1982). Le scénario est librement inspiré du roman de Claude Voilier : Les Cinq et le galion d'or.
 Le Dieu inca (1982). Le scénario est librement inspiré du roman de Claude Voilier : Les Cinq font de la brocante.
 Le Secret des Templiers (1983). Le scénario est librement inspiré du roman de Claude Voilier : Les Cinq et le trésor de Roquépine.
 Le Cimetière des géants (1984).
 Le Castel du baron de fer (1985).
 Le Gouffre du diable (1986).
-En 2016, les éditions Hachette relancent la série avec le dessinateur Béja et le scénariste Nataël[11].
+En 2016, les éditions Hachette relancent la série avec le dessinateur Béja et le scénariste Nataël.
 Cette nouvelle série entreprend l'adaptation chronologique des romans publiés par Enid Blyton.
 Le Club des cinq et le Trésor de l'île (2017).
 Le Club des cinq et le Passage secret (2018).
 Le Club des cinq contre-attaque (2019).
 Le Club des cinq en vacances (2019).
 Le Club des cinq en Péril (2020).
-Le Club des cinq et le Cirque de l'étoile (2021).
-Enregistrements
-Il existe des adaptations audio de quelques aventures du Club des cinq, éditées par Adès et par Hachette sous forme de disques vinyle 33 tours ou de cassettes audio.
+Le Club des cinq et le Cirque de l'étoile (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Enregistrements</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Il existe des adaptations audio de quelques aventures du Club des cinq, éditées par Adès et par Hachette sous forme de disques vinyle 33 tours ou de cassettes audio.
 Aux Éditions Adès, les romans suivants ont été adaptés :
 Le Club des cinq
 Le Club des cinq en randonnée
@@ -736,15 +1171,83 @@
 Le club des cinq aux sports d'hiver
 Le Club des cinq et les Saltimbanques
 Le club des cinq va camper
-Le Club des cinq et le Secret du vieux puits
-La collection du Club des cinq
-Les éditions Hachette publient en maison de la presse en France depuis la fin de l'année 2011 une collection « Club des cinq »[12]. Chaque parution contient :
+Le Club des cinq et le Secret du vieux puits</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>La collection du Club des cinq</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les éditions Hachette publient en maison de la presse en France depuis la fin de l'année 2011 une collection « Club des cinq ». Chaque parution contient :
 un facsimilé de la première édition des romans d'Enid Blyton dans la Bibliothèque rose (années 1960, illustrations de Simone Beaudoin, traduction d'origine) ;
 un facsimilé de la première édition des romans de Claude Voilier dans la Bibliothèque rose (années 1980, illustrations de Jean Sidobre) ;
 un fascicule qui contient quelques jeux, informations sur l'univers du Club des cinq, le livre, l'époque, l'auteur ;
-deux classeurs illustrés permet de rassembler les fascicules.
-Jeux vidéo
-Une première adaptation en jeu d'aventure (fiction interactive avec des graphiques) avait été développée par Enigma Variations Ltd. et sortit en 1990 sur Amiga, Amstrad CPC, Atari ST, Commodore 64, ZX Spectrum[13].
+deux classeurs illustrés permet de rassembler les fascicules.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_cinq</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première adaptation en jeu d'aventure (fiction interactive avec des graphiques) avait été développée par Enigma Variations Ltd. et sortit en 1990 sur Amiga, Amstrad CPC, Atari ST, Commodore 64, ZX Spectrum.
 Ravensburger a créé plusieurs jeux vidéo avec les personnages d'Enid Blyton :
 </t>
         </is>
